--- a/OREI_files/housing lit review/Lit review.xlsx
+++ b/OREI_files/housing lit review/Lit review.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI/Lit review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/housing lit review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A7A9AB-7EAF-481D-9F04-FB5AF7360EEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A7A9AB-7EAF-481D-9F04-FB5AF7360EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="1750" windowWidth="10250" windowHeight="8710" xr2:uid="{F47973E5-C286-4A48-A384-1FFF10A69254}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F47973E5-C286-4A48-A384-1FFF10A69254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1016,7 +1015,7 @@
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/OREI_files/housing lit review/Lit review.xlsx
+++ b/OREI_files/housing lit review/Lit review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/housing lit review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A7A9AB-7EAF-481D-9F04-FB5AF7360EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{C3A7A9AB-7EAF-481D-9F04-FB5AF7360EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F2B03E9-B121-43CD-9A0F-6D1DC5F2A229}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F47973E5-C286-4A48-A384-1FFF10A69254}"/>
   </bookViews>
@@ -376,10 +376,6 @@
     <t>Compost dairy barn layout and management recommendations</t>
   </si>
   <si>
-    <t>Summarize experience and knowledge of compost barns and management recommendations based on producer experiences. Information for this article was collected through interviews
-and discussions with producers with compost dairy barns.</t>
-  </si>
-  <si>
     <t>Companion to Barberg 2006b</t>
   </si>
   <si>
@@ -573,6 +569,9 @@
   </si>
   <si>
     <t>Straw yards and mastitis incidence are for early lactation cows specifically</t>
+  </si>
+  <si>
+    <t>Summarize experience and knowledge of compost barns and management recommendations based on producer experiences. Information for this article was collected through interviews and discussions with producers with compost dairy barns.</t>
   </si>
 </sst>
 </file>
@@ -1012,10 +1011,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC3A615-AC01-4605-836A-372ED005A95D}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1242,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>76</v>
@@ -1257,7 +1256,7 @@
         <v>77</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>81</v>
@@ -1456,7 +1455,7 @@
         <v>104</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>88</v>
@@ -1479,16 +1478,16 @@
         <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
@@ -1499,13 +1498,13 @@
         <v>2011</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="58" x14ac:dyDescent="0.35">
@@ -1516,34 +1515,34 @@
         <v>2009</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="12" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1566,42 +1565,42 @@
         <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -1610,44 +1609,44 @@
         <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="13">
         <v>2005</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1658,114 +1657,114 @@
         <v>2005</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="15">
         <v>2004</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="15">
         <v>2004</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" t="s">
         <v>160</v>
       </c>
-      <c r="L22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="10">
         <v>1998</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>158</v>
+      <c r="C23" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s">
         <v>165</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K23" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="10">
         <v>2002</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="J24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/OREI_files/housing lit review/Lit review.xlsx
+++ b/OREI_files/housing lit review/Lit review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/housing lit review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{C3A7A9AB-7EAF-481D-9F04-FB5AF7360EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F2B03E9-B121-43CD-9A0F-6D1DC5F2A229}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C3A7A9AB-7EAF-481D-9F04-FB5AF7360EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAF67589-8D28-4256-A170-FDCD9CA5F2FE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F47973E5-C286-4A48-A384-1FFF10A69254}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F47973E5-C286-4A48-A384-1FFF10A69254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -475,10 +470,6 @@
     <t>Experimental/controlled field trial?</t>
   </si>
   <si>
-    <t>Composted bedded pack barn solves cow
-comfort woes.</t>
-  </si>
-  <si>
     <t>Description of one farm in Minnesota</t>
   </si>
   <si>
@@ -572,6 +563,9 @@
   </si>
   <si>
     <t>Summarize experience and knowledge of compost barns and management recommendations based on producer experiences. Information for this article was collected through interviews and discussions with producers with compost dairy barns.</t>
+  </si>
+  <si>
+    <t>Composted bedded pack barn solves cow comfort woes.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -668,13 +662,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -685,7 +673,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1011,10 +998,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC3A615-AC01-4605-836A-372ED005A95D}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,13 +1060,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>2016</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1114,13 +1101,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>2016</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
@@ -1155,13 +1142,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>2013</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="s">
@@ -1196,13 +1183,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="130" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>2014</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D5" t="s">
@@ -1237,13 +1224,13 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>76</v>
       </c>
       <c r="D6" t="s">
@@ -1256,9 +1243,9 @@
         <v>77</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1278,13 +1265,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D7" t="s">
@@ -1316,13 +1303,13 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D8" t="s">
@@ -1337,7 +1324,7 @@
       <c r="G8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -1357,13 +1344,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>2011</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1375,7 +1362,7 @@
       <c r="F9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1395,13 +1382,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="145" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>2012</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1433,13 +1420,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>2008</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1448,7 +1435,7 @@
       <c r="E11" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>102</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1468,13 +1455,13 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>2006</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1484,20 +1471,20 @@
         <v>63</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>2011</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>122</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1508,13 +1495,13 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>2009</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1545,23 +1532,23 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="12" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="12">
         <v>2010</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="1:13" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>2019</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1582,7 +1569,7 @@
       <c r="I16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="2" t="s">
         <v>142</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -1593,14 +1580,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>143</v>
+      <c r="C17" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>37</v>
@@ -1609,13 +1596,13 @@
         <v>63</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1626,134 +1613,134 @@
         <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2005</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="K19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="10">
         <v>2005</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="C20" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="13">
-        <v>2005</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="12">
         <v>2004</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="12">
+        <v>2004</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1998</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="15">
-        <v>2004</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="D23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="10">
-        <v>1998</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="F23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2002</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E23" t="s">
-        <v>161</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="G24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="10">
-        <v>2002</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="85.5" customHeight="1" x14ac:dyDescent="0.35">
